--- a/public/files/template/inventory/bhp_distribusi_obat.xlsx
+++ b/public/files/template/inventory/bhp_distribusi_obat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>TAHUN [b.tahun]</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>DAFTAR BARANG  HABIS PAKAI DISTRIBUSI OBAT</t>
+  </si>
+  <si>
+    <t>Nomor Dokumen</t>
+  </si>
+  <si>
+    <t>: [b.nomor_dokumen]</t>
+  </si>
+  <si>
+    <t>Tanggal Distibusi</t>
+  </si>
+  <si>
+    <t>: [b.tgl_distribusi]</t>
+  </si>
+  <si>
+    <t>Jenis Barang</t>
+  </si>
+  <si>
+    <t>: [b.jenis_bhp]</t>
+  </si>
+  <si>
+    <t>: [b.jumlah]</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>: [b.penerima]</t>
   </si>
 </sst>
 </file>
@@ -91,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +157,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,19 +199,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,6 +228,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,140 +559,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
